--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H2">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>8.730061896933028</v>
+        <v>4.593981855208333</v>
       </c>
       <c r="R2">
-        <v>8.730061896933028</v>
+        <v>41.345836696875</v>
       </c>
       <c r="S2">
-        <v>0.02601107986164586</v>
+        <v>0.005129833578768431</v>
       </c>
       <c r="T2">
-        <v>0.02601107986164586</v>
+        <v>0.005129833578768431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H3">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>42.74413542321724</v>
+        <v>21.8809669789211</v>
       </c>
       <c r="R3">
-        <v>42.74413542321724</v>
+        <v>196.92870281029</v>
       </c>
       <c r="S3">
-        <v>0.1273554681783992</v>
+        <v>0.02443320907267765</v>
       </c>
       <c r="T3">
-        <v>0.1273554681783992</v>
+        <v>0.02443320907267765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H4">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>129.7972646444964</v>
+        <v>66.09391238645497</v>
       </c>
       <c r="R4">
-        <v>129.7972646444964</v>
+        <v>594.8452114780948</v>
       </c>
       <c r="S4">
-        <v>0.386728875046953</v>
+        <v>0.07380324559354184</v>
       </c>
       <c r="T4">
-        <v>0.386728875046953</v>
+        <v>0.07380324559354183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.35666844654806</v>
+        <v>2.202688333333333</v>
       </c>
       <c r="H5">
-        <v>4.35666844654806</v>
+        <v>6.608065</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.194626115952434</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1946261159524339</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>91.44258202770989</v>
+        <v>47.13372629058166</v>
       </c>
       <c r="R5">
-        <v>91.44258202770989</v>
+        <v>424.203536615235</v>
       </c>
       <c r="S5">
-        <v>0.2724517113347691</v>
+        <v>0.05263150344048135</v>
       </c>
       <c r="T5">
-        <v>0.2724517113347691</v>
+        <v>0.05263150344048134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,1301 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>2.202688333333333</v>
+      </c>
+      <c r="H6">
+        <v>6.608065</v>
+      </c>
+      <c r="I6">
+        <v>0.194626115952434</v>
+      </c>
+      <c r="J6">
+        <v>0.1946261159524339</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N6">
+        <v>47.115095</v>
+      </c>
+      <c r="O6">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P6">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q6">
+        <v>34.59329002679721</v>
+      </c>
+      <c r="R6">
+        <v>311.339610241175</v>
+      </c>
+      <c r="S6">
+        <v>0.03862832426696468</v>
+      </c>
+      <c r="T6">
+        <v>0.03862832426696467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.833451</v>
+      </c>
+      <c r="H7">
+        <v>14.500353</v>
+      </c>
+      <c r="I7">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J7">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.085625</v>
+      </c>
+      <c r="N7">
+        <v>6.256875</v>
+      </c>
+      <c r="O7">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P7">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q7">
+        <v>10.080766241875</v>
+      </c>
+      <c r="R7">
+        <v>90.726896176875</v>
+      </c>
+      <c r="S7">
+        <v>0.01125660805748666</v>
+      </c>
+      <c r="T7">
+        <v>0.01125660805748666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.833451</v>
+      </c>
+      <c r="H8">
+        <v>14.500353</v>
+      </c>
+      <c r="I8">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J8">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N8">
+        <v>29.801266</v>
+      </c>
+      <c r="O8">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P8">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q8">
+        <v>48.01431964965533</v>
+      </c>
+      <c r="R8">
+        <v>432.128876846898</v>
+      </c>
+      <c r="S8">
+        <v>0.05361481106445361</v>
+      </c>
+      <c r="T8">
+        <v>0.0536148110644536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.35666844654806</v>
-      </c>
-      <c r="H6">
-        <v>4.35666844654806</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="N6">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="O6">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="P6">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="Q6">
-        <v>62.91453980226601</v>
-      </c>
-      <c r="R6">
-        <v>62.91453980226601</v>
-      </c>
-      <c r="S6">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="T6">
-        <v>0.1874528655782328</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.833451</v>
+      </c>
+      <c r="H9">
+        <v>14.500353</v>
+      </c>
+      <c r="I9">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J9">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N9">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O9">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P9">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q9">
+        <v>145.032632208471</v>
+      </c>
+      <c r="R9">
+        <v>1305.293689876239</v>
+      </c>
+      <c r="S9">
+        <v>0.1619495440271927</v>
+      </c>
+      <c r="T9">
+        <v>0.1619495440271927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.833451</v>
+      </c>
+      <c r="H10">
+        <v>14.500353</v>
+      </c>
+      <c r="I10">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J10">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.398273</v>
+      </c>
+      <c r="N10">
+        <v>64.194819</v>
+      </c>
+      <c r="O10">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P10">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q10">
+        <v>103.427504030123</v>
+      </c>
+      <c r="R10">
+        <v>930.8475362711069</v>
+      </c>
+      <c r="S10">
+        <v>0.1154915060320524</v>
+      </c>
+      <c r="T10">
+        <v>0.1154915060320523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.833451</v>
+      </c>
+      <c r="H11">
+        <v>14.500353</v>
+      </c>
+      <c r="I11">
+        <v>0.4270762143425078</v>
+      </c>
+      <c r="J11">
+        <v>0.4270762143425077</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N11">
+        <v>47.115095</v>
+      </c>
+      <c r="O11">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P11">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q11">
+        <v>75.90950101428166</v>
+      </c>
+      <c r="R11">
+        <v>683.1855091285349</v>
+      </c>
+      <c r="S11">
+        <v>0.08476374516132243</v>
+      </c>
+      <c r="T11">
+        <v>0.08476374516132242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.095279</v>
+      </c>
+      <c r="I12">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J12">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.085625</v>
+      </c>
+      <c r="N12">
+        <v>6.256875</v>
+      </c>
+      <c r="O12">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P12">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q12">
+        <v>2.151863754791667</v>
+      </c>
+      <c r="R12">
+        <v>19.366773793125</v>
+      </c>
+      <c r="S12">
+        <v>0.002402861677337734</v>
+      </c>
+      <c r="T12">
+        <v>0.002402861677337734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.095279</v>
+      </c>
+      <c r="I13">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J13">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N13">
+        <v>29.801266</v>
+      </c>
+      <c r="O13">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P13">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q13">
+        <v>10.24924809146822</v>
+      </c>
+      <c r="R13">
+        <v>92.243232823214</v>
+      </c>
+      <c r="S13">
+        <v>0.01144474198502415</v>
+      </c>
+      <c r="T13">
+        <v>0.01144474198502415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.095279</v>
+      </c>
+      <c r="I14">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J14">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N14">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O14">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P14">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q14">
+        <v>30.95900222495299</v>
+      </c>
+      <c r="R14">
+        <v>278.631020024577</v>
+      </c>
+      <c r="S14">
+        <v>0.03457012547811388</v>
+      </c>
+      <c r="T14">
+        <v>0.03457012547811388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.095279</v>
+      </c>
+      <c r="I15">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J15">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.398273</v>
+      </c>
+      <c r="N15">
+        <v>64.194819</v>
+      </c>
+      <c r="O15">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P15">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q15">
+        <v>22.07787501772233</v>
+      </c>
+      <c r="R15">
+        <v>198.700875159501</v>
+      </c>
+      <c r="S15">
+        <v>0.02465308488002913</v>
+      </c>
+      <c r="T15">
+        <v>0.02465308488002912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.031759666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.095279</v>
+      </c>
+      <c r="I16">
+        <v>0.09116467976013157</v>
+      </c>
+      <c r="J16">
+        <v>0.09116467976013155</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N16">
+        <v>47.115095</v>
+      </c>
+      <c r="O16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q16">
+        <v>16.20381823738944</v>
+      </c>
+      <c r="R16">
+        <v>145.834364136505</v>
+      </c>
+      <c r="S16">
+        <v>0.01809386573962668</v>
+      </c>
+      <c r="T16">
+        <v>0.01809386573962667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H17">
+        <v>8.48297</v>
+      </c>
+      <c r="I17">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J17">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.085625</v>
+      </c>
+      <c r="N17">
+        <v>6.256875</v>
+      </c>
+      <c r="O17">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P17">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q17">
+        <v>5.897431435416665</v>
+      </c>
+      <c r="R17">
+        <v>53.07688291875</v>
+      </c>
+      <c r="S17">
+        <v>0.006585320264507876</v>
+      </c>
+      <c r="T17">
+        <v>0.006585320264507876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H18">
+        <v>8.48297</v>
+      </c>
+      <c r="I18">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J18">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N18">
+        <v>29.801266</v>
+      </c>
+      <c r="O18">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P18">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q18">
+        <v>28.08924949333555</v>
+      </c>
+      <c r="R18">
+        <v>252.80324544002</v>
+      </c>
+      <c r="S18">
+        <v>0.0313656387410312</v>
+      </c>
+      <c r="T18">
+        <v>0.0313656387410312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H19">
+        <v>8.48297</v>
+      </c>
+      <c r="I19">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J19">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N19">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q19">
+        <v>84.84672532078997</v>
+      </c>
+      <c r="R19">
+        <v>763.6205278871098</v>
+      </c>
+      <c r="S19">
+        <v>0.09474342614254666</v>
+      </c>
+      <c r="T19">
+        <v>0.09474342614254665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H20">
+        <v>8.48297</v>
+      </c>
+      <c r="I20">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J20">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.398273</v>
+      </c>
+      <c r="N20">
+        <v>64.194819</v>
+      </c>
+      <c r="O20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q20">
+        <v>60.50696930360333</v>
+      </c>
+      <c r="R20">
+        <v>544.56272373243</v>
+      </c>
+      <c r="S20">
+        <v>0.06756462969727145</v>
+      </c>
+      <c r="T20">
+        <v>0.06756462969727142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.827656666666666</v>
+      </c>
+      <c r="H21">
+        <v>8.48297</v>
+      </c>
+      <c r="I21">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="J21">
+        <v>0.2498473460598554</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N21">
+        <v>47.115095</v>
+      </c>
+      <c r="O21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q21">
+        <v>44.4084374924611</v>
+      </c>
+      <c r="R21">
+        <v>399.67593743215</v>
+      </c>
+      <c r="S21">
+        <v>0.04958833121449824</v>
+      </c>
+      <c r="T21">
+        <v>0.04958833121449824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.265945</v>
+      </c>
+      <c r="I22">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J22">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.085625</v>
+      </c>
+      <c r="N22">
+        <v>6.256875</v>
+      </c>
+      <c r="O22">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P22">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q22">
+        <v>0.8800955135416667</v>
+      </c>
+      <c r="R22">
+        <v>7.920859621875</v>
+      </c>
+      <c r="S22">
+        <v>0.0009827517086883986</v>
+      </c>
+      <c r="T22">
+        <v>0.0009827517086883986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.265945</v>
+      </c>
+      <c r="I23">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J23">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N23">
+        <v>29.801266</v>
+      </c>
+      <c r="O23">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P23">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q23">
+        <v>4.191862631818888</v>
+      </c>
+      <c r="R23">
+        <v>37.72676368637</v>
+      </c>
+      <c r="S23">
+        <v>0.004680810321858351</v>
+      </c>
+      <c r="T23">
+        <v>0.004680810321858352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.265945</v>
+      </c>
+      <c r="I24">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J24">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N24">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O24">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P24">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q24">
+        <v>12.661990751615</v>
+      </c>
+      <c r="R24">
+        <v>113.957916764535</v>
+      </c>
+      <c r="S24">
+        <v>0.01413891203293496</v>
+      </c>
+      <c r="T24">
+        <v>0.01413891203293496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.265945</v>
+      </c>
+      <c r="I25">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J25">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.398273</v>
+      </c>
+      <c r="N25">
+        <v>64.194819</v>
+      </c>
+      <c r="O25">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P25">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q25">
+        <v>9.029678904328334</v>
+      </c>
+      <c r="R25">
+        <v>81.267110138955</v>
+      </c>
+      <c r="S25">
+        <v>0.01008291967814484</v>
+      </c>
+      <c r="T25">
+        <v>0.01008291967814484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4219816666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.265945</v>
+      </c>
+      <c r="I26">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="J26">
+        <v>0.03728564388507135</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N26">
+        <v>47.115095</v>
+      </c>
+      <c r="O26">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P26">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q26">
+        <v>6.627235437752778</v>
+      </c>
+      <c r="R26">
+        <v>59.645118939775</v>
+      </c>
+      <c r="S26">
+        <v>0.007400250143444806</v>
+      </c>
+      <c r="T26">
+        <v>0.007400250143444806</v>
       </c>
     </row>
   </sheetData>
